--- a/src/test/resources/VtigerTestSpecificData.xlsx
+++ b/src/test/resources/VtigerTestSpecificData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\git\com.crm.SDET26\com.crm.SDET26\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chan\git\com.crm.SDET26\com.crm.SDET26\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EAA188-1CE2-4CF7-A735-4BD77AB35C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0431FD2B-4AD1-4E03-A5DC-E839C492E1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="1860" windowWidth="10035" windowHeight="6000" xr2:uid="{C87B3EB5-CA51-43B8-9E99-628BBFF01D55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C87B3EB5-CA51-43B8-9E99-628BBFF01D55}"/>
   </bookViews>
   <sheets>
     <sheet name="Organization" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>OrgNAme</t>
-  </si>
-  <si>
     <t>premchan</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Chemicals</t>
   </si>
   <si>
-    <t>Customer</t>
-  </si>
-  <si>
     <t>OppName</t>
   </si>
   <si>
@@ -105,6 +99,12 @@
   </si>
   <si>
     <t>Contacts</t>
+  </si>
+  <si>
+    <t>Orgname</t>
+  </si>
+  <si>
+    <t>customer</t>
   </si>
 </sst>
 </file>
@@ -473,35 +473,35 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -530,58 +530,58 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
